--- a/modules/resources/test2.xlsx
+++ b/modules/resources/test2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yyu/Desktop/excel-reads/modules/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF92686B-35C7-1841-BD3C-2D384C196AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35DA2B6-DF11-144F-B53A-8B56183799BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2700" windowWidth="28300" windowHeight="17440" xr2:uid="{0DE2253A-20E6-954C-A8B9-F99CE3747744}"/>
+    <workbookView xWindow="6660" yWindow="2700" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{0DE2253A-20E6-954C-A8B9-F99CE3747744}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Hello</t>
     <phoneticPr fontId="1"/>
@@ -49,6 +50,22 @@
   </si>
   <si>
     <t>Bye!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pen.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B01ACC-C2E3-AA44-A388-3448ACAD6D64}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="274" zoomScaleNormal="274" workbookViewId="0">
+    <sheetView zoomScale="274" zoomScaleNormal="274" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -469,4 +486,67 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982A09C3-8C2D-AF41-871A-5A997B84C502}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="240" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>